--- a/data/season_2025/next_games/next_games.xlsx
+++ b/data/season_2025/next_games/next_games.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,42 +511,42 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Bet365_Lines_Goals_Over_1.5</t>
+          <t>Bet365_Lines_Goals_Over_2.5</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Bet365_Lines_Goals_Over_2.5</t>
+          <t>Bet365_Lines_Goals_Over_3.5</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Bet365_Lines_Goals_Under_1.5</t>
+          <t>Bet365_Lines_Goals_Under_2.5</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Bet365_Lines_Goals_Under_2.5</t>
+          <t>Bet365_Lines_Goals_Under_3.5</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Pinnacle_Lines_Goals_Over_1.5</t>
+          <t>Pinnacle_Lines_Goals_Over_2.5</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Pinnacle_Lines_Goals_Over_2.5</t>
+          <t>Pinnacle_Lines_Goals_Over_3.5</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Pinnacle_Lines_Goals_Under_1.5</t>
+          <t>Pinnacle_Lines_Goals_Under_2.5</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Pinnacle_Lines_Goals_Under_2.5</t>
+          <t>Pinnacle_Lines_Goals_Under_3.5</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -558,67 +558,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga Profesional de Fútbol - ARG PD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bragantino vs Atlético Mineiro</t>
+          <t>Platense vs Gimnasia La Plata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-16 22:00:00</t>
+          <t>2025-11-17 22:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -638,67 +638,67 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central Cordoba SdE vs Banfield</t>
+          <t>Fortaleza CEIF vs Deportes Tolima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-11-16 23:15:00</t>
+          <t>2025-11-18 23:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -714,67 +714,67 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Newell's Old Boys vs Racing Club</t>
+          <t>Botafogo vs Sport Recife</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-11-16 23:15:00</t>
+          <t>2025-11-19 18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -790,69 +790,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Estudiantes vs Argentinos Juniors</t>
+          <t>Bragantino vs Vitória</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-11-16 23:15:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
+          <t>2025-11-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -866,69 +826,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boca Juniors vs Tigre</t>
+          <t>Atlético Mineiro vs Palmeiras</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-11-16 23:15:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
+          <t>2025-11-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -942,67 +862,67 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>La Liga 2 - ESP S</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cultural Leonesa vs Málaga</t>
+          <t>Palmeiras vs Vitória</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-11-17 19:30:00</t>
+          <t>2025-11-19 22:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1018,67 +938,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Defensa y Justicia vs Independiente Rivadavia</t>
+          <t>Atlético Bucaramanga vs Santa Fe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-11-17 20:00:00</t>
+          <t>2025-11-19 23:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1094,280 +1014,344 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Barracas Central vs Huracán</t>
+          <t>Fluminense vs Flamengo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-11-17 20:00:00</t>
+          <t>2025-11-20 00:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Belgrano vs Unión Santa Fe</t>
+          <t>Santos vs Mirassol</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-11-17 20:00:00</t>
+          <t>2025-11-20 00:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Liga Profesional de Fútbol - ARG PD</t>
+          <t>Serie A - BRA CB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Platense vs Gimnasia La Plata</t>
+          <t>Grêmio vs Vasco da Gama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-17 22:30:00</t>
+          <t>2025-11-20 00:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Botafogo vs Sport Recife</t>
+          <t>Junior FC vs Independiente Medellín</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-11-19 18:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>2025-11-20 01:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
     </row>
@@ -1379,20 +1363,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bragantino vs Vitória</t>
+          <t>Juventude vs Cruzeiro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-11-19 18:00:00</t>
+          <t>2025-11-20 19:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1415,27 +1411,75 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Atlético Mineiro vs Palmeiras</t>
+          <t>Bahia vs Fortaleza</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-11-19 18:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>2025-11-20 21:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1451,62 +1495,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Palmeiras vs Vitória</t>
+          <t>Corinthians vs São Paulo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-11-19 22:30:00</t>
+          <t>2025-11-20 22:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1527,17 +1571,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fluminense vs Flamengo</t>
+          <t>Ceará vs Internacional</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-11-20 00:30:00</t>
+          <t>2025-11-21 00:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1547,22 +1591,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1575,8 +1619,16 @@
           <t>2.05</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -1590,139 +1642,103 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga BetPlay - COL PA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Santos vs Mirassol</t>
+          <t>Atlético Nacional vs América de Cali</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-11-20 00:30:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
+          <t>2025-11-21 00:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Grêmio vs Vasco da Gama</t>
+          <t>Pachuca vs Pumas UNAM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-11-20 00:30:00</t>
+          <t>2025-11-21 01:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1737,7 +1753,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1745,70 +1761,98 @@
           <t>1.70</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Liga MX - MEX AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Juventude vs Cruzeiro</t>
+          <t>Tijuana vs Juárez</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-11-20 19:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>2025-11-21 03:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -1822,57 +1866,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bahia vs Fortaleza</t>
+          <t>Al Ittihad vs Al Riyadh</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-11-20 21:00:00</t>
+          <t>2025-11-21 13:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1880,88 +1924,892 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Serie A - BRA CB</t>
+          <t>Pro League - SAU PL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Corinthians vs São Paulo</t>
+          <t>Al Kholood vs Al Hazm</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-11-20 22:30:00</t>
+          <t>2025-11-21 14:50:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Premier League - None</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Akron vs Sochi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-11-21 15:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hertha BSC vs Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-11-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2. Bundesliga - GER BII</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VfL Bochum 1848 vs Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-11-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pro League - SAU PL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Al Ahli vs Al-Qadsiah</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-11-21 17:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Superliga - DNK SL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Silkeborg IF vs AGF</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-11-21 18:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bundesliga - GER BI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FSV Mainz 05 vs TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-11-21 19:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>La Liga 2 - ESP S</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Las Palmas vs Albacete</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-11-21 19:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pro League - BEL FDA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Standard Liège vs Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-11-21 19:45:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ligue 1 - FRA L1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nice vs Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-11-21 19:45:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>La Liga - ESP PL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Valencia vs Levante</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-11-21 20:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
